--- a/exclusion results based on title and abstract.xlsx
+++ b/exclusion results based on title and abstract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4DE8B0-7B19-4EB6-8856-C840198D6DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3581E00F-0C48-47A5-B74F-E3FD4AC14684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Paper Assignment" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exclusion Results'!$B$2:$L$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exclusion Results'!$A$2:$L$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="627">
   <si>
     <t>Reason for Exclusion</t>
   </si>
@@ -1943,6 +1943,9 @@
   </si>
   <si>
     <t>Not English</t>
+  </si>
+  <si>
+    <t>Not Peer-Reviewed</t>
   </si>
 </sst>
 </file>
@@ -2173,15 +2176,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2403,12 +2406,12 @@
   <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="33"/>
+    <col min="1" max="1" width="12.5546875" style="30"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
@@ -2418,17 +2421,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>620</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2466,7 +2469,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>621</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -2503,7 +2506,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="str">
+      <c r="A4" s="33" t="str">
         <f>B4</f>
         <v>OK</v>
       </c>
@@ -2541,7 +2544,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="33" t="str">
         <f t="shared" ref="A5:A68" si="0">B5</f>
         <v>OK</v>
       </c>
@@ -2579,7 +2582,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="str">
+      <c r="A6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2617,7 +2620,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="str">
+      <c r="A7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2655,7 +2658,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="str">
+      <c r="A8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2693,7 +2696,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="str">
+      <c r="A9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>No MDE application</v>
       </c>
@@ -2731,7 +2734,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="str">
+      <c r="A10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2769,7 +2772,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="str">
+      <c r="A11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2807,7 +2810,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="str">
+      <c r="A12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2845,7 +2848,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2883,7 +2886,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="str">
+      <c r="A14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2921,7 +2924,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="str">
+      <c r="A15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2959,7 +2962,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="str">
+      <c r="A16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -2997,7 +3000,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="str">
+      <c r="A17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Philosophical, Opinion, or Experience paper</v>
       </c>
@@ -3035,7 +3038,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="str">
+      <c r="A18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="str">
+      <c r="A19" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3111,7 +3114,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="str">
+      <c r="A20" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3149,7 +3152,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="str">
+      <c r="A21" s="32" t="str">
         <f t="shared" si="0"/>
         <v>No MDE application</v>
       </c>
@@ -3187,7 +3190,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="str">
+      <c r="A22" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3225,7 +3228,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="str">
+      <c r="A23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3263,7 +3266,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="str">
+      <c r="A24" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3301,7 +3304,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="str">
+      <c r="A25" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3339,7 +3342,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="str">
+      <c r="A26" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3377,7 +3380,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="str">
+      <c r="A27" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3415,7 +3418,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="str">
+      <c r="A28" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3453,7 +3456,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="str">
+      <c r="A29" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3491,7 +3494,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="str">
+      <c r="A30" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3529,7 +3532,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="str">
+      <c r="A31" s="32" t="str">
         <f t="shared" si="0"/>
         <v>No MDE application</v>
       </c>
@@ -3569,7 +3572,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="str">
+      <c r="A32" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3607,7 +3610,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="str">
+      <c r="A33" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3645,7 +3648,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="str">
+      <c r="A34" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3683,7 +3686,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="str">
+      <c r="A35" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3721,7 +3724,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="str">
+      <c r="A36" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3759,7 +3762,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="str">
+      <c r="A37" s="32" t="str">
         <f t="shared" si="0"/>
         <v>No MDE application</v>
       </c>
@@ -3798,7 +3801,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="str">
+      <c r="A38" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3836,7 +3839,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="str">
+      <c r="A39" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3874,7 +3877,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="str">
+      <c r="A40" s="32" t="str">
         <f t="shared" si="0"/>
         <v>No MDE application</v>
       </c>
@@ -3912,7 +3915,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="str">
+      <c r="A41" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3950,7 +3953,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="str">
+      <c r="A42" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -3988,7 +3991,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="str">
+      <c r="A43" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4026,7 +4029,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="str">
+      <c r="A44" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4064,7 +4067,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="str">
+      <c r="A45" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4102,7 +4105,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="str">
+      <c r="A46" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4140,7 +4143,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="str">
+      <c r="A47" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4178,7 +4181,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="str">
+      <c r="A48" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4216,18 +4219,18 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="str">
+      <c r="A49" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Philosophical, Opinion, or Experience paper</v>
+        <v>Not Peer-Reviewed</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>191</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E49" s="23" t="str">
         <f>'Review 2'!C48</f>
@@ -4256,18 +4259,18 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="str">
+      <c r="A50" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Philosophical, Opinion, or Experience paper</v>
+        <v>Not Peer-Reviewed</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>191</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E50" s="23">
         <f>'Review 2'!C49</f>
@@ -4296,7 +4299,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="str">
+      <c r="A51" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4334,7 +4337,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="str">
+      <c r="A52" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4372,7 +4375,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="str">
+      <c r="A53" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4410,7 +4413,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="str">
+      <c r="A54" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4448,7 +4451,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="str">
+      <c r="A55" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4486,7 +4489,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="str">
+      <c r="A56" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4524,7 +4527,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="str">
+      <c r="A57" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4562,7 +4565,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="str">
+      <c r="A58" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4600,7 +4603,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="str">
+      <c r="A59" s="32" t="str">
         <f>B59</f>
         <v>No MDE application</v>
       </c>
@@ -4638,7 +4641,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="str">
+      <c r="A60" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4676,7 +4679,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="str">
+      <c r="A61" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4714,7 +4717,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="str">
+      <c r="A62" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4752,7 +4755,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="str">
+      <c r="A63" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4790,7 +4793,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="str">
+      <c r="A64" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4828,7 +4831,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="str">
+      <c r="A65" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Philosophical, Opinion, or Experience paper</v>
       </c>
@@ -4866,7 +4869,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="str">
+      <c r="A66" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4903,7 +4906,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="str">
+      <c r="A67" s="33" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
@@ -4940,7 +4943,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35" t="str">
+      <c r="A68" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Secondary Study</v>
       </c>
@@ -4978,7 +4981,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="str">
+      <c r="A69" s="33" t="str">
         <f t="shared" ref="A69:A70" si="1">B69</f>
         <v>OK</v>
       </c>
@@ -5015,7 +5018,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="str">
+      <c r="A70" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Philosophical, Opinion, or Experience paper</v>
       </c>
@@ -5053,7 +5056,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="32" t="s">
         <v>625</v>
       </c>
       <c r="B71" s="22" t="s">
@@ -5090,7 +5093,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="33" t="s">
         <v>619</v>
       </c>
       <c r="B72" s="26" t="s">
@@ -5127,7 +5130,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="str">
+      <c r="A73" s="33" t="str">
         <f t="shared" ref="A73:A132" si="2">B73</f>
         <v>OK</v>
       </c>
@@ -5165,7 +5168,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="str">
+      <c r="A74" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5203,7 +5206,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="36" t="str">
+      <c r="A75" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5241,7 +5244,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="36" t="str">
+      <c r="A76" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5277,7 +5280,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="str">
+      <c r="A77" s="32" t="str">
         <f t="shared" si="2"/>
         <v>No DT used</v>
       </c>
@@ -5315,7 +5318,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="str">
+      <c r="A78" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5353,7 +5356,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="str">
+      <c r="A79" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5391,7 +5394,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="str">
+      <c r="A80" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5429,7 +5432,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="str">
+      <c r="A81" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5467,7 +5470,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="str">
+      <c r="A82" s="32" t="str">
         <f t="shared" si="2"/>
         <v>No MDE application</v>
       </c>
@@ -5505,7 +5508,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="35" t="str">
+      <c r="A83" s="32" t="str">
         <f t="shared" si="2"/>
         <v>No MDE application</v>
       </c>
@@ -5543,7 +5546,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="36" t="str">
+      <c r="A84" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -5581,7 +5584,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="str">
+      <c r="A85" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5619,7 +5622,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35" t="str">
+      <c r="A86" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5657,7 +5660,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="str">
+      <c r="A87" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5695,7 +5698,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="35" t="str">
+      <c r="A88" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5733,7 +5736,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35" t="str">
+      <c r="A89" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5771,7 +5774,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="35" t="str">
+      <c r="A90" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5809,7 +5812,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="str">
+      <c r="A91" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5847,7 +5850,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="35" t="str">
+      <c r="A92" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5885,7 +5888,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="str">
+      <c r="A93" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5923,7 +5926,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="str">
+      <c r="A94" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5961,7 +5964,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="35" t="str">
+      <c r="A95" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -5999,7 +6002,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="35" t="str">
+      <c r="A96" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6037,7 +6040,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35" t="str">
+      <c r="A97" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6075,7 +6078,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="35" t="str">
+      <c r="A98" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6113,7 +6116,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="35" t="str">
+      <c r="A99" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6151,7 +6154,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="35" t="str">
+      <c r="A100" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6189,7 +6192,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="35" t="str">
+      <c r="A101" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6227,7 +6230,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="str">
+      <c r="A102" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6265,7 +6268,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="str">
+      <c r="A103" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6303,7 +6306,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="str">
+      <c r="A104" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6341,7 +6344,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35" t="str">
+      <c r="A105" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6379,7 +6382,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="str">
+      <c r="A106" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6417,7 +6420,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="str">
+      <c r="A107" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6455,7 +6458,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="str">
+      <c r="A108" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6493,7 +6496,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="str">
+      <c r="A109" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6531,7 +6534,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="str">
+      <c r="A110" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6569,7 +6572,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="str">
+      <c r="A111" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6607,7 +6610,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="35" t="str">
+      <c r="A112" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6645,7 +6648,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35" t="str">
+      <c r="A113" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6683,7 +6686,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="str">
+      <c r="A114" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6721,7 +6724,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="str">
+      <c r="A115" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6759,7 +6762,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35" t="str">
+      <c r="A116" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6797,7 +6800,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35" t="str">
+      <c r="A117" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6835,7 +6838,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="35" t="str">
+      <c r="A118" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="35" t="str">
+      <c r="A119" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6911,7 +6914,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="35" t="str">
+      <c r="A120" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6949,7 +6952,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="35" t="str">
+      <c r="A121" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -6987,7 +6990,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35" t="str">
+      <c r="A122" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -7025,7 +7028,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="35" t="str">
+      <c r="A123" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -7063,7 +7066,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="35" t="str">
+      <c r="A124" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -7101,7 +7104,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="35" t="str">
+      <c r="A125" s="32" t="str">
         <f t="shared" si="2"/>
         <v>duplicate</v>
       </c>
@@ -7139,7 +7142,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="36" t="str">
+      <c r="A126" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7177,7 +7180,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="35" t="str">
+      <c r="A127" s="32" t="str">
         <f t="shared" si="2"/>
         <v>No MDE application</v>
       </c>
@@ -7215,7 +7218,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="36" t="str">
+      <c r="A128" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7253,7 +7256,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="36" t="str">
+      <c r="A129" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7291,7 +7294,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="36" t="str">
+      <c r="A130" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7329,7 +7332,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="36" t="str">
+      <c r="A131" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7367,7 +7370,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="36" t="str">
+      <c r="A132" s="33" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
@@ -7405,7 +7408,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="str">
+      <c r="A133" s="33" t="str">
         <f t="shared" ref="A133:A143" si="3">B133</f>
         <v>OK</v>
       </c>
@@ -7443,7 +7446,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="35" t="str">
+      <c r="A134" s="32" t="str">
         <f t="shared" si="3"/>
         <v>No MDE application</v>
       </c>
@@ -7483,7 +7486,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="36" t="str">
+      <c r="A135" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7521,7 +7524,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="36" t="str">
+      <c r="A136" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7559,7 +7562,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="36" t="str">
+      <c r="A137" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7597,7 +7600,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="36" t="str">
+      <c r="A138" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7635,7 +7638,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="36" t="str">
+      <c r="A139" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7673,7 +7676,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="35" t="str">
+      <c r="A140" s="32" t="str">
         <f t="shared" si="3"/>
         <v>Philosophical, Opinion, or Experience paper</v>
       </c>
@@ -7711,7 +7714,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="36" t="str">
+      <c r="A141" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7749,7 +7752,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="36" t="str">
+      <c r="A142" s="33" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
@@ -7787,7 +7790,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="35" t="str">
+      <c r="A143" s="32" t="str">
         <f t="shared" si="3"/>
         <v>No MDE application</v>
       </c>
@@ -7825,7 +7828,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="36"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
       <c r="D144" s="27">
@@ -7842,7 +7845,7 @@
       <c r="L144" s="26"/>
     </row>
     <row r="145" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="36"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="26"/>
       <c r="C145" s="26"/>
       <c r="D145" s="27">
@@ -7859,7 +7862,7 @@
       <c r="L145" s="26"/>
     </row>
     <row r="146" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="36"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
       <c r="D146" s="27">
@@ -7876,7 +7879,7 @@
       <c r="L146" s="26"/>
     </row>
     <row r="147" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="36"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="27">
@@ -7893,7 +7896,7 @@
       <c r="L147" s="26"/>
     </row>
     <row r="148" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="36"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
       <c r="D148" s="27">
@@ -7910,7 +7913,7 @@
       <c r="L148" s="26"/>
     </row>
     <row r="149" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="36"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
       <c r="D149" s="27">
@@ -7927,7 +7930,7 @@
       <c r="L149" s="26"/>
     </row>
     <row r="150" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="36"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="26"/>
       <c r="C150" s="26"/>
       <c r="D150" s="27">
@@ -7944,7 +7947,7 @@
       <c r="L150" s="26"/>
     </row>
     <row r="151" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="36"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
       <c r="D151" s="27">
@@ -7961,7 +7964,7 @@
       <c r="L151" s="26"/>
     </row>
     <row r="152" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152" s="36"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
       <c r="D152" s="27">
@@ -7978,7 +7981,7 @@
       <c r="L152" s="26"/>
     </row>
     <row r="153" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="36"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="26"/>
       <c r="C153" s="26"/>
       <c r="D153" s="27">
@@ -7995,7 +7998,7 @@
       <c r="L153" s="26"/>
     </row>
     <row r="154" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="36"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="26"/>
       <c r="C154" s="26"/>
       <c r="D154" s="27">
@@ -8012,7 +8015,7 @@
       <c r="L154" s="26"/>
     </row>
     <row r="155" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
+      <c r="A155" s="33"/>
       <c r="B155" s="26"/>
       <c r="C155" s="26"/>
       <c r="D155" s="27">
@@ -8029,7 +8032,7 @@
       <c r="L155" s="26"/>
     </row>
     <row r="156" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="26"/>
       <c r="C156" s="26"/>
       <c r="D156" s="27">
@@ -8046,7 +8049,7 @@
       <c r="L156" s="26"/>
     </row>
     <row r="157" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
       <c r="D157" s="27">
@@ -8063,7 +8066,7 @@
       <c r="L157" s="26"/>
     </row>
     <row r="158" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
       <c r="D158" s="27">
@@ -8080,7 +8083,7 @@
       <c r="L158" s="26"/>
     </row>
     <row r="159" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="26"/>
       <c r="C159" s="26"/>
       <c r="D159" s="27">
@@ -8097,7 +8100,7 @@
       <c r="L159" s="26"/>
     </row>
     <row r="160" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="36"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="26"/>
       <c r="C160" s="26"/>
       <c r="D160" s="27">
@@ -8114,7 +8117,7 @@
       <c r="L160" s="26"/>
     </row>
     <row r="161" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="36"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
       <c r="D161" s="27">
@@ -8131,7 +8134,7 @@
       <c r="L161" s="26"/>
     </row>
     <row r="162" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="36"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
       <c r="D162" s="27">
@@ -8148,7 +8151,7 @@
       <c r="L162" s="26"/>
     </row>
     <row r="163" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="36"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
       <c r="D163" s="27">
@@ -8165,7 +8168,7 @@
       <c r="L163" s="26"/>
     </row>
     <row r="164" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="29">
@@ -8182,7 +8185,7 @@
       <c r="L164" s="26"/>
     </row>
     <row r="165" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="29">
@@ -8199,7 +8202,7 @@
       <c r="L165" s="26"/>
     </row>
     <row r="166" spans="1:12" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="29">
@@ -19128,7 +19131,7 @@
       <c r="L1001" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L185" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A2:L185" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -23283,10 +23286,10 @@
       <c r="A139" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="C139" s="32"/>
+      <c r="C139" s="36"/>
       <c r="D139" s="6" t="s">
         <v>506</v>
       </c>
